--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1750296.133236005</v>
+        <v>1841915.366206935</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5856909.277707019</v>
+        <v>6185939.704016156</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>317.8227870144766</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>251.7207938508591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.2938967844495</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.5638063789177</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>222.6309997171404</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>301.2231388236591</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>40.00214882260022</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.7906815870353</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>272.2613629461742</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1299,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>43.70143389869456</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.77758775668029</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.4895076809685</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1421,13 +1423,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>111.7936689725569</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>400.6492109609763</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1768,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>39.86022305741668</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>158.3040288668729</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>179.0861311466703</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>89.78186289252615</v>
       </c>
     </row>
     <row r="26">
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2950,19 +2952,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>39.5975448024357</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>50.05924486566766</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3187,13 +3189,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>137.2470510215431</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,13 +3243,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3329,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>60.78001549303652</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>161.7153088076657</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.7600314331706</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.77283765622121</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>53.26828797891093</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>3.423392126085031</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.34780583513874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497383</v>
+        <v>1174.390541388614</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>745.8088671258822</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>716.0745263245815</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>288.2070967337892</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4340,7 +4342,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.14417192365</v>
+        <v>742.0909015512234</v>
       </c>
       <c r="C4" t="n">
-        <v>516.14417192365</v>
+        <v>569.5291900344483</v>
       </c>
       <c r="D4" t="n">
-        <v>516.14417192365</v>
+        <v>569.5291900344483</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>399.7711862851856</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>223.0641322469418</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>57.47285727276946</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>57.47285727276946</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,49 +4491,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1566.63415311139</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="P4" t="n">
-        <v>1566.63415311139</v>
+        <v>1639.766242229718</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1599.438531635367</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1353.559085213823</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1075.126084466928</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>788.1705763373584</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W4" t="n">
-        <v>516.14417192365</v>
+        <v>987.4826562178109</v>
       </c>
       <c r="X4" t="n">
-        <v>516.14417192365</v>
+        <v>742.0909015512234</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.14417192365</v>
+        <v>742.0909015512234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1492.472752207023</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1054.330279390447</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1022.460898605295</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>588.6861537635903</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>564.8591282132021</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1938.935152280721</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1938.120101732159</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>1518.977638311469</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>1514.731918651527</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>838.4274903606283</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>665.8657788438533</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>665.8657788438533</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>496.1077750945905</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>319.4007210563467</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.750429333523</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1030.246109079616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1481.736852598028</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1045.827067772473</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>452.1535503695694</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>872.2064493144727</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1291.875698540254</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1639.382592510596</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.377099909325</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1110.377099909325</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1110.377099909325</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3723.22878676488</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3723.22878676488</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3318.373332175914</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2899.230868755224</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.230868755224</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.17381292742493</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>400.7321378936373</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>500.1468411603806</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="E13" t="n">
-        <v>330.3888374111178</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F13" t="n">
-        <v>330.3888374111178</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.184985426686</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>799.0425126101095</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>799.0425126101095</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.770679611941</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1663.484555911594</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>797.1744111966217</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1739.37737469043</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>613.0697391124583</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>447.191746313981</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>277.4337425647182</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>100.7266885264744</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,19 +5755,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.474012941002</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5777,10 +5779,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5941,19 +5943,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>380.3945678471324</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>380.3945678471324</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1455.454534099992</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2612.502369310543</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550759</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937588</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>790.3368563937588</v>
       </c>
       <c r="D31" t="n">
-        <v>639.1929661716164</v>
+        <v>624.4588635952815</v>
       </c>
       <c r="E31" t="n">
-        <v>469.4349624223536</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>292.7279083841098</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
         <v>242.1630145804051</v>
@@ -6625,46 +6627,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745609</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878946</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755398</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008503</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465225</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>982.155475112746</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>673.1212928181459</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
         <v>673.1212928181459</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,10 +6943,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -6962,16 +6964,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6980,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7117,7 +7119,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
         <v>2700.681281130895</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,28 +7177,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F40" t="n">
-        <v>303.5569696238763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7375,7 +7377,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2881.322306888762</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2881.322306888762</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2881.322306888762</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.8728193312368</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>772.3111078144617</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>772.3111078144617</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>602.553104065199</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>425.8460500269553</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>260.2547750527829</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>120.3526007431574</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.917776692876</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2168.484775945981</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1881.529267816412</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1609.502863402703</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.111108736116</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.691438050224</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>486.3646795840096</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1320.714971542188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1320.714971542188</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.714971542188</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542188</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3753.074309087194</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3348.218854498227</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2929.076391077538</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.17381292742493</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>400.7321378936373</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>811.7546776883951</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>639.19296617162</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>473.3149733731427</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>303.55696962388</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>303.55696962388</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>137.9656946497076</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>137.9656946497076</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1003.573296407382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,11 +7978,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8055,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>131.8679565343714</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.805895586112</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>419.23049837298</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>387.2382033372867</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949907263</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9012,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="P20" t="n">
-        <v>602.9445958447764</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>280.9431591680331</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,13 +9889,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,10 +10126,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10662,19 +10664,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>414.370774113524</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.54706709909016</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.42554389793564</v>
+        <v>55.07653710780788</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>14.30182782550611</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>84.63380825304873</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>90.22000922290104</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.4628789093344</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>113.8761173587629</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.58904338006423</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1553467313941</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>63.43016517136707</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.2765433468881</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>44.0005120768502</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>305.7224925866008</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>52.42554389793268</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>505921.7844762145</v>
+        <v>518604.1068994898</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>505921.7844762145</v>
+        <v>520887.5869454153</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437932.4807052604</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437932.4807052604</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541633.6251984435</v>
+        <v>541633.6251984434</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541633.6251984434</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437932.4807052604</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437932.4807052604</v>
+        <v>541633.6251984437</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
+        <v>469128.9049041076</v>
+      </c>
+      <c r="D2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041076</v>
-      </c>
       <c r="E2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="G2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
+        <v>461000.3861201832</v>
+      </c>
+      <c r="K2" t="n">
         <v>461000.3861201833</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>461000.3861201834</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>461000.3861201832</v>
       </c>
       <c r="N2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>372737.2772060218</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="P2" t="n">
-        <v>372737.2772060218</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877262</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
@@ -26442,22 +26444,22 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
+        <v>81439.57146904276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.57146904278</v>
-      </c>
-      <c r="L4" t="n">
-        <v>81439.57146904283</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61551.84326530837</v>
+        <v>61551.84326530853</v>
       </c>
       <c r="C6" t="n">
-        <v>203743.1439250184</v>
+        <v>159112.1574086125</v>
       </c>
       <c r="D6" t="n">
-        <v>203743.1439250184</v>
+        <v>218125.6965328088</v>
       </c>
       <c r="E6" t="n">
-        <v>91548.24070885508</v>
+        <v>119487.4668242983</v>
       </c>
       <c r="F6" t="n">
-        <v>249025.5356309591</v>
+        <v>301842.5760453478</v>
       </c>
       <c r="G6" t="n">
-        <v>212342.7674389789</v>
+        <v>301842.576045348</v>
       </c>
       <c r="H6" t="n">
-        <v>301842.5760453478</v>
+        <v>301842.576045348</v>
       </c>
       <c r="I6" t="n">
         <v>301842.576045348</v>
@@ -26546,22 +26548,22 @@
         <v>190828.1107003577</v>
       </c>
       <c r="K6" t="n">
-        <v>301842.5760453481</v>
+        <v>248796.7214065754</v>
       </c>
       <c r="L6" t="n">
-        <v>301842.576045348</v>
+        <v>292450.2743187259</v>
       </c>
       <c r="M6" t="n">
-        <v>170406.3288879283</v>
+        <v>149642.4051073604</v>
       </c>
       <c r="N6" t="n">
         <v>301842.576045348</v>
       </c>
       <c r="O6" t="n">
-        <v>249025.535630959</v>
+        <v>301842.576045348</v>
       </c>
       <c r="P6" t="n">
-        <v>249025.535630959</v>
+        <v>301842.576045348</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>113.7278999628233</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>145.6630592121097</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>64.47945294862191</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>82.0851486360656</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>174.7528533458284</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>113.7278999628233</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>123.9332134018304</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.3547923919975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>157.1756344471135</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>131.2385495991668</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.3678862223525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -34696,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34775,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>131.8679565343714</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.805895586112</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>419.23049837298</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>387.2382033372867</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949907263</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>728.3199979646474</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951.7201651452608</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,22 +36123,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="P20" t="n">
-        <v>602.9445958447764</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>280.9431591680331</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36607,13 +36609,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,13 +36843,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080363</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37004,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>414.370774113524</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452608</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,10 +38189,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841915.366206935</v>
+        <v>1841390.183837902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -670,16 +670,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>251.7207938508591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>198.4740907166399</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>158.8614910041035</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.2938967844495</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>222.6309997171404</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>285.7271881495578</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>40.00214882260022</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>135.3118399838025</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>272.2613629461742</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>279.505316787639</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.70143389869456</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>109.1426757626846</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1409105078473</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>39.86022305741668</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>158.3040288668729</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>161.072347141068</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0861311466703</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.78186289252615</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>39.5975448024357</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.7153088076657</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="41">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>35.34780583513874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1208.492610164787</v>
+        <v>1234.215327408404</v>
       </c>
       <c r="C2" t="n">
-        <v>1174.390541388614</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>745.8088671258822</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>716.0745263245815</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>288.2070967337892</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4342,7 +4342,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1276.637323441699</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1276.637323441699</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>1275.822272893136</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.997496269233</v>
+        <v>1260.720213512851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.75177660929</v>
+        <v>1256.474493852908</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.0909015512234</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="C4" t="n">
-        <v>569.5291900344483</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D4" t="n">
-        <v>569.5291900344483</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>399.7711862851856</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>223.0641322469418</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>57.47285727276946</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>57.47285727276946</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4500,13 +4500,13 @@
         <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.259348259376</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.766242229718</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.509060631519</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W4" t="n">
-        <v>987.4826562178109</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0909015512234</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.0909015512234</v>
+        <v>706.4661538926848</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1492.472752207023</v>
+        <v>1382.503203996562</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.330279390447</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.460898605295</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>588.6861537635903</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>564.8591282132021</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087175</v>
+        <v>557.764910672645</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346895</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346895</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="V5" t="n">
-        <v>1938.935152280721</v>
+        <v>2233.006008110665</v>
       </c>
       <c r="W5" t="n">
-        <v>1938.120101732159</v>
+        <v>1828.150553521698</v>
       </c>
       <c r="X5" t="n">
-        <v>1518.977638311469</v>
+        <v>1409.008090101009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.731918651527</v>
+        <v>1404.762370441066</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947713</v>
+        <v>374.9907115556894</v>
       </c>
       <c r="K6" t="n">
-        <v>674.5331706342566</v>
+        <v>999.0914956004684</v>
       </c>
       <c r="L6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342566</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1298.633954679036</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838.4274903606283</v>
+        <v>705.1946014282937</v>
       </c>
       <c r="C7" t="n">
-        <v>665.8657788438533</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="D7" t="n">
-        <v>665.8657788438533</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="E7" t="n">
-        <v>496.1077750945905</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="F7" t="n">
-        <v>319.4007210563467</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K7" t="n">
         <v>325.1908411606127</v>
@@ -4737,40 +4737,40 @@
         <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2362.377960771851</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2116.498514350306</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1838.065513603412</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>1551.110005473842</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765507</v>
+        <v>1279.083601060134</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.665779765507</v>
+        <v>1033.691846393546</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.246109079616</v>
+        <v>897.0132201472809</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1515.838921374201</v>
+        <v>1236.873845124191</v>
       </c>
       <c r="C8" t="n">
-        <v>1481.736852598028</v>
+        <v>1202.771776348018</v>
       </c>
       <c r="D8" t="n">
-        <v>1045.827067772473</v>
+        <v>1170.902395562867</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>737.1276507211617</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,7 +4807,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.384211519051</v>
+        <v>2071.459539309445</v>
       </c>
       <c r="Y8" t="n">
-        <v>1942.138491859109</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4944,19 +4944,19 @@
         <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>403.0375283363603</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5044,13 +5044,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423627</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1116.062450089081</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C13" t="n">
-        <v>617.7751448769883</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5300178439735</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E13" t="n">
-        <v>507.5300178439735</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F13" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
         <v>330.8229638057297</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2506.656904206056</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5518,22 +5518,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q17" t="n">
         <v>5113.04201353898</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>875.8255515988632</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>703.2638400820881</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>537.3858472836108</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1295.063841003742</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1067.64417031785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5761,13 +5761,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5785,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.0677766831641</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.886395402151</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>380.3945678471324</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>380.3945678471324</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1455.454534099992</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2612.502369310543</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937588</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937588</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>624.4588635952815</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6627,46 +6627,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745609</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878946</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176943</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755398</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008503</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878934</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.966900465225</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798638</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.155475112746</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1286.300469346935</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6943,10 +6943,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -6967,13 +6967,13 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.8255515988633</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C40" t="n">
-        <v>703.2638400820882</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D40" t="n">
-        <v>537.3858472836109</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1067.64417031785</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
@@ -7493,25 +7493,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883951</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>639.19296617162</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731427</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>303.55696962388</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>303.55696962388</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>137.9656946497076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9656946497076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7824,34 +7824,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.36663430314</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.41112617357</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8148,16 +8148,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.99715944515106</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611115</v>
       </c>
       <c r="N5" t="n">
-        <v>72.805895586112</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>57.2413492337397</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>419.23049837298</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372867</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>801.4298400828734</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>280.9431591680331</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>946.7571087441347</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.07653710780788</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>33.279741449482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>84.63380825304873</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.146865729424547</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>90.22000922290104</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.4628789093344</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.43016517136707</v>
+        <v>212.1323395461472</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>52.42554389793268</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>541633.6251984435</v>
+        <v>541633.6251984434</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541633.6251984434</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541633.6251984437</v>
+        <v>541633.6251984435</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>469128.9049041076</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="F2" t="n">
         <v>461000.3861201833</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>461000.3861201832</v>
-      </c>
-      <c r="G2" t="n">
-        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
         <v>461000.3861201833</v>
@@ -26337,13 +26337,13 @@
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
         <v>461000.3861201833</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998259</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877262</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662217</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,19 +26420,19 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924761</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="G4" t="n">
         <v>81439.57146904281</v>
-      </c>
-      <c r="F4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
         <v>81439.5714690428</v>
@@ -26444,13 +26444,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904276</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81439.57146904278</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904283</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61551.84326530853</v>
+        <v>61551.8432653086</v>
       </c>
       <c r="C6" t="n">
-        <v>159112.1574086125</v>
+        <v>159112.1574086124</v>
       </c>
       <c r="D6" t="n">
-        <v>218125.6965328088</v>
+        <v>218125.6965328086</v>
       </c>
       <c r="E6" t="n">
-        <v>119487.4668242983</v>
+        <v>119464.2424849157</v>
       </c>
       <c r="F6" t="n">
-        <v>301842.5760453478</v>
+        <v>301819.3517059653</v>
       </c>
       <c r="G6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059652</v>
       </c>
       <c r="H6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059653</v>
       </c>
       <c r="I6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059653</v>
       </c>
       <c r="J6" t="n">
-        <v>190828.1107003577</v>
+        <v>190804.8863609752</v>
       </c>
       <c r="K6" t="n">
-        <v>248796.7214065754</v>
+        <v>248773.4970671928</v>
       </c>
       <c r="L6" t="n">
-        <v>292450.2743187259</v>
+        <v>292427.049979343</v>
       </c>
       <c r="M6" t="n">
-        <v>149642.4051073604</v>
+        <v>149619.1807679776</v>
       </c>
       <c r="N6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059653</v>
       </c>
       <c r="O6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059654</v>
       </c>
       <c r="P6" t="n">
-        <v>301842.576045348</v>
+        <v>301819.3517059653</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768882</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>145.6630592121097</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>58.15598893951341</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>31.03894152769371</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>64.47945294862191</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>174.7528533458284</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>73.26359241595395</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>123.9332134018304</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>89.83363399523031</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>157.1756344471135</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.0834385072453</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>131.2385495991668</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34868,16 +34868,16 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.99715944515106</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611115</v>
       </c>
       <c r="N5" t="n">
-        <v>72.805895586112</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>57.2413492337397</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>419.23049837298</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35105,16 +35105,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372867</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>935.0031416802852</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36129,16 +36129,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>801.4298400828734</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>280.9431591680331</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080363</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,7 +37004,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>946.7571087441347</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38095,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38192,7 +38192,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
